--- a/Bases de datos/clean/dic_arg_prev_dm.xlsx
+++ b/Bases de datos/clean/dic_arg_prev_dm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Procesamiento-R\Bases de datos\clean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358D0102-4613-476B-9FB9-75B054370C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A78D40D-008C-4F64-8564-E81926F6D808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>variable</t>
   </si>
@@ -91,19 +91,31 @@
     <t>Varón, Mujer</t>
   </si>
   <si>
-    <t>prev_dm</t>
+    <t>dm_total</t>
+  </si>
+  <si>
+    <t>Total estimado de personas con diabetes mellitus por provincia, edad y sexo</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>dm_total_cv</t>
+  </si>
+  <si>
+    <t>Coeficiente de variación del total</t>
+  </si>
+  <si>
+    <t>dm_prev</t>
   </si>
   <si>
     <t>Prevalencia de diabetes mellitus por autorreporte</t>
   </si>
   <si>
-    <t>numeric</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>prev_dm_cv</t>
+    <t>dm_prev_cv</t>
   </si>
   <si>
     <t>Coeficiente de variación de la prevalencia</t>
@@ -465,19 +477,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="229" style="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -608,6 +620,34 @@
         <v>26</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases de datos/clean/dic_arg_prev_dm.xlsx
+++ b/Bases de datos/clean/dic_arg_prev_dm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Procesamiento-R\Bases de datos\clean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A78D40D-008C-4F64-8564-E81926F6D808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097B9686-1287-491B-8D3B-FBD186C79EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>variable</t>
   </si>
@@ -49,7 +49,7 @@
     <t>prov_id</t>
   </si>
   <si>
-    <t>Identificador numérico provincia</t>
+    <t>Identificador numérico de provincia</t>
   </si>
   <si>
     <t>2, 6, 10, 14, 18, 22, 26, 30, 34, 38, 42, 46, 50, 54, 58, 62, 66, 70, 74, 78, 82, 86, 90, 94</t>
@@ -58,7 +58,7 @@
     <t>prov_nombre</t>
   </si>
   <si>
-    <t>Nombre de provincia</t>
+    <t>Identificador categórico de provincia</t>
   </si>
   <si>
     <t>Buenos Aires, CABA, Catamarca, Chaco, Chubut, Córdoba, Corrientes, Entre Ríos, Formosa, Jujuy, La Pampa, La Rioja, Mendoza, Misiones, Neuquén, Río Negro, Salta, San Juan, San Luis, Santa Cruz, Santa Fe, Santiago del Estero, Tierra del Fuego, Tucumán</t>
@@ -70,7 +70,7 @@
     <t>Grupo de edad quinquenal</t>
   </si>
   <si>
-    <t>20 a 24, 25 a 29, 30 a 34, 35 a 39, 40 a 44, 45 a 49, 50 a 54, 55 a 59, 60 a 64, 65 a 69, 70 a 74, 75 a 79, 80+</t>
+    <t>20-24 años, 25-29 años, 30-34 años, 35-39 años, 40-44 años, 45-49 años, 50-54 años, 55-59 años, 60-64 años, 65-69 años, 70-74 años, 75-79 años, 80+ años</t>
   </si>
   <si>
     <t>grupo_edad_10</t>
@@ -79,7 +79,7 @@
     <t>Grupo de edad decenal</t>
   </si>
   <si>
-    <t>20 a 29, 30 a 39, 40 a 49, 50 a 59, 60 a 69, 70 a 79, 80+</t>
+    <t>20-29 años, 30-39 años, 40-49 años, 50-59 años, 60-69 años, 70-79 años, 80+ años</t>
   </si>
   <si>
     <t>sexo</t>
@@ -103,10 +103,16 @@
     <t>NA</t>
   </si>
   <si>
+    <t>dm_total_se</t>
+  </si>
+  <si>
+    <t>Error estándar del total de personas con DM</t>
+  </si>
+  <si>
     <t>dm_total_cv</t>
   </si>
   <si>
-    <t>Coeficiente de variación del total</t>
+    <t>Coeficiente de variación del total de personas con DM</t>
   </si>
   <si>
     <t>dm_prev</t>
@@ -115,10 +121,16 @@
     <t>Prevalencia de diabetes mellitus por autorreporte</t>
   </si>
   <si>
+    <t>dm_prev_se</t>
+  </si>
+  <si>
+    <t>Error estándar del total de la prevalencia de personas con DM</t>
+  </si>
+  <si>
     <t>dm_prev_cv</t>
   </si>
   <si>
-    <t>Coeficiente de variación de la prevalencia</t>
+    <t>Coeficiente de variación de la prevalencia de personas con DM</t>
   </si>
 </sst>
 </file>
@@ -477,21 +489,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="229" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="229" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -648,6 +660,34 @@
         <v>26</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases de datos/clean/dic_arg_prev_dm.xlsx
+++ b/Bases de datos/clean/dic_arg_prev_dm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Procesamiento-R\Bases de datos\clean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097B9686-1287-491B-8D3B-FBD186C79EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBED854-DD2E-4987-A7A7-176E7476D23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -495,7 +495,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
